--- a/DataAna/raw_DATA.xlsx
+++ b/DataAna/raw_DATA.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\SBTHW\心理测量\final project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D04EA57-F31E-4DAA-86C8-DDD109DC44D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$326</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="994">
   <si>
     <t>序号</t>
   </si>
@@ -2935,41 +2922,98 @@
   </si>
   <si>
     <t>124.160.20.76(浙江-杭州)</t>
+  </si>
+  <si>
+    <t>2025/12/21 22:16:23</t>
+  </si>
+  <si>
+    <t>718秒</t>
+  </si>
+  <si>
+    <t>115.224.71.199(浙江-绍兴)</t>
+  </si>
+  <si>
+    <t>2025/12/21 22:29:05</t>
+  </si>
+  <si>
+    <t>368秒</t>
+  </si>
+  <si>
+    <t>112.19.65.84(四川-宜宾)</t>
+  </si>
+  <si>
+    <t>2025/12/21 22:59:40</t>
+  </si>
+  <si>
+    <t>358秒</t>
+  </si>
+  <si>
+    <t>112.47.159.183(福建-泉州)</t>
+  </si>
+  <si>
+    <t>2025/12/22 9:38:37</t>
+  </si>
+  <si>
+    <t>223.104.44.1(北京-北京)</t>
+  </si>
+  <si>
+    <t>2025/12/22 10:51:30</t>
+  </si>
+  <si>
+    <t>39.144.45.73(上海-上海)</t>
+  </si>
+  <si>
+    <t>2025/12/22 15:30:41</t>
+  </si>
+  <si>
+    <t>130秒</t>
+  </si>
+  <si>
+    <t>101.82.78.25(上海-上海)</t>
+  </si>
+  <si>
+    <t>2025/12/22 15:44:35</t>
+  </si>
+  <si>
+    <t>101秒</t>
+  </si>
+  <si>
+    <t>120.235.21.240(广东-广州)</t>
+  </si>
+  <si>
+    <t>2025/12/22 20:33:56</t>
+  </si>
+  <si>
+    <t>729秒</t>
+  </si>
+  <si>
+    <t>39.144.124.106(浙江-杭州)</t>
+  </si>
+  <si>
+    <t>2025/12/23 17:25:12</t>
+  </si>
+  <si>
+    <t>267秒</t>
+  </si>
+  <si>
+    <t>223.104.162.117(浙江-温州)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -2984,37 +3028,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3314,90 +3431,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BY326"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:BY335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="76" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="18.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="7.14285714285714" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.109375" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="24.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="4.28571428571429" customWidth="1"/>
+    <col min="8" max="8" width="7.85714285714286" customWidth="1"/>
+    <col min="9" max="9" width="11.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="15.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="11.5714285714286" customWidth="1"/>
     <col min="12" max="12" width="217" customWidth="1"/>
-    <col min="13" max="13" width="41.33203125" customWidth="1"/>
-    <col min="14" max="14" width="65.44140625" customWidth="1"/>
-    <col min="15" max="15" width="39.44140625" customWidth="1"/>
-    <col min="16" max="16" width="35.6640625" customWidth="1"/>
-    <col min="17" max="17" width="44.109375" customWidth="1"/>
-    <col min="18" max="18" width="38.5546875" customWidth="1"/>
+    <col min="13" max="13" width="41.2857142857143" customWidth="1"/>
+    <col min="14" max="14" width="65.4285714285714" customWidth="1"/>
+    <col min="15" max="15" width="39.4285714285714" customWidth="1"/>
+    <col min="16" max="16" width="35.7142857142857" customWidth="1"/>
+    <col min="17" max="17" width="44.1428571428571" customWidth="1"/>
+    <col min="18" max="18" width="38.5714285714286" customWidth="1"/>
     <col min="19" max="19" width="46" customWidth="1"/>
-    <col min="20" max="20" width="44.109375" customWidth="1"/>
-    <col min="21" max="23" width="40.44140625" customWidth="1"/>
-    <col min="24" max="24" width="39.6640625" customWidth="1"/>
-    <col min="25" max="25" width="40.44140625" customWidth="1"/>
-    <col min="26" max="26" width="49.6640625" customWidth="1"/>
-    <col min="27" max="27" width="51.5546875" customWidth="1"/>
-    <col min="28" max="28" width="38.5546875" customWidth="1"/>
+    <col min="20" max="20" width="44.1428571428571" customWidth="1"/>
+    <col min="21" max="23" width="40.4285714285714" customWidth="1"/>
+    <col min="24" max="24" width="39.7142857142857" customWidth="1"/>
+    <col min="25" max="25" width="40.4285714285714" customWidth="1"/>
+    <col min="26" max="26" width="49.7142857142857" customWidth="1"/>
+    <col min="27" max="27" width="51.5714285714286" customWidth="1"/>
+    <col min="28" max="28" width="38.5714285714286" customWidth="1"/>
     <col min="29" max="29" width="49" customWidth="1"/>
-    <col min="30" max="30" width="34.88671875" customWidth="1"/>
-    <col min="31" max="31" width="49.6640625" customWidth="1"/>
-    <col min="32" max="32" width="53.44140625" customWidth="1"/>
-    <col min="33" max="33" width="38.5546875" customWidth="1"/>
-    <col min="34" max="34" width="49.6640625" customWidth="1"/>
-    <col min="35" max="35" width="40.44140625" customWidth="1"/>
+    <col min="30" max="30" width="34.8571428571429" customWidth="1"/>
+    <col min="31" max="31" width="49.7142857142857" customWidth="1"/>
+    <col min="32" max="32" width="53.4285714285714" customWidth="1"/>
+    <col min="33" max="33" width="38.5714285714286" customWidth="1"/>
+    <col min="34" max="34" width="49.7142857142857" customWidth="1"/>
+    <col min="35" max="35" width="40.4285714285714" customWidth="1"/>
     <col min="36" max="36" width="72" customWidth="1"/>
-    <col min="37" max="37" width="53.44140625" customWidth="1"/>
-    <col min="38" max="38" width="51.5546875" customWidth="1"/>
-    <col min="39" max="39" width="53.44140625" customWidth="1"/>
-    <col min="40" max="40" width="62.6640625" customWidth="1"/>
+    <col min="37" max="37" width="53.4285714285714" customWidth="1"/>
+    <col min="38" max="38" width="51.5714285714286" customWidth="1"/>
+    <col min="39" max="39" width="53.4285714285714" customWidth="1"/>
+    <col min="40" max="40" width="62.7142857142857" customWidth="1"/>
     <col min="41" max="41" width="23" customWidth="1"/>
-    <col min="42" max="42" width="62.6640625" customWidth="1"/>
-    <col min="43" max="43" width="36.6640625" customWidth="1"/>
+    <col min="42" max="42" width="62.7142857142857" customWidth="1"/>
+    <col min="43" max="43" width="36.7142857142857" customWidth="1"/>
     <col min="44" max="44" width="46" customWidth="1"/>
-    <col min="45" max="47" width="38.5546875" customWidth="1"/>
-    <col min="48" max="48" width="49.6640625" customWidth="1"/>
-    <col min="49" max="49" width="56.44140625" customWidth="1"/>
+    <col min="45" max="47" width="38.5714285714286" customWidth="1"/>
+    <col min="48" max="48" width="49.7142857142857" customWidth="1"/>
+    <col min="49" max="49" width="56.4285714285714" customWidth="1"/>
     <col min="50" max="50" width="59" customWidth="1"/>
     <col min="51" max="51" width="46" customWidth="1"/>
     <col min="52" max="52" width="59" customWidth="1"/>
-    <col min="53" max="53" width="34.88671875" customWidth="1"/>
-    <col min="54" max="54" width="47.109375" customWidth="1"/>
-    <col min="55" max="55" width="36.6640625" customWidth="1"/>
-    <col min="56" max="56" width="40.44140625" customWidth="1"/>
-    <col min="57" max="58" width="34.88671875" customWidth="1"/>
+    <col min="53" max="53" width="34.8571428571429" customWidth="1"/>
+    <col min="54" max="54" width="47.1428571428571" customWidth="1"/>
+    <col min="55" max="55" width="36.7142857142857" customWidth="1"/>
+    <col min="56" max="56" width="40.4285714285714" customWidth="1"/>
+    <col min="57" max="58" width="34.8571428571429" customWidth="1"/>
     <col min="59" max="59" width="59" customWidth="1"/>
-    <col min="60" max="60" width="53.44140625" customWidth="1"/>
-    <col min="61" max="61" width="51.5546875" customWidth="1"/>
-    <col min="62" max="62" width="70.109375" customWidth="1"/>
-    <col min="63" max="63" width="66.44140625" customWidth="1"/>
-    <col min="64" max="64" width="47.88671875" customWidth="1"/>
-    <col min="65" max="65" width="55.88671875" customWidth="1"/>
-    <col min="66" max="66" width="42.88671875" customWidth="1"/>
-    <col min="67" max="67" width="48.44140625" customWidth="1"/>
-    <col min="68" max="68" width="53.44140625" customWidth="1"/>
-    <col min="69" max="69" width="38.5546875" customWidth="1"/>
-    <col min="70" max="70" width="27.44140625" customWidth="1"/>
-    <col min="71" max="71" width="40.44140625" customWidth="1"/>
-    <col min="72" max="72" width="36.6640625" customWidth="1"/>
+    <col min="60" max="60" width="53.4285714285714" customWidth="1"/>
+    <col min="61" max="61" width="51.5714285714286" customWidth="1"/>
+    <col min="62" max="62" width="70.1428571428571" customWidth="1"/>
+    <col min="63" max="63" width="66.4285714285714" customWidth="1"/>
+    <col min="64" max="64" width="47.8571428571429" customWidth="1"/>
+    <col min="65" max="65" width="55.8571428571429" customWidth="1"/>
+    <col min="66" max="66" width="42.8571428571429" customWidth="1"/>
+    <col min="67" max="67" width="48.4285714285714" customWidth="1"/>
+    <col min="68" max="68" width="53.4285714285714" customWidth="1"/>
+    <col min="69" max="69" width="38.5714285714286" customWidth="1"/>
+    <col min="70" max="70" width="27.4285714285714" customWidth="1"/>
+    <col min="71" max="71" width="40.4285714285714" customWidth="1"/>
+    <col min="72" max="72" width="36.7142857142857" customWidth="1"/>
     <col min="73" max="73" width="46" customWidth="1"/>
-    <col min="74" max="74" width="49.6640625" customWidth="1"/>
-    <col min="75" max="75" width="40.44140625" customWidth="1"/>
-    <col min="76" max="76" width="36.6640625" customWidth="1"/>
-    <col min="77" max="77" width="34.88671875" customWidth="1"/>
+    <col min="74" max="74" width="49.7142857142857" customWidth="1"/>
+    <col min="75" max="75" width="40.4285714285714" customWidth="1"/>
+    <col min="76" max="76" width="36.7142857142857" customWidth="1"/>
+    <col min="77" max="77" width="34.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" ht="12.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3630,7 +3745,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" ht="12.75">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3863,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" ht="12.75">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4096,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" ht="12.75">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4329,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" ht="12.75">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4562,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" ht="12.75">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4795,7 +4910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" ht="12.75">
       <c r="A7">
         <v>7</v>
       </c>
@@ -5028,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" ht="12.75">
       <c r="A8">
         <v>8</v>
       </c>
@@ -5261,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" ht="12.75">
       <c r="A9">
         <v>9</v>
       </c>
@@ -5494,7 +5609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" ht="12.75">
       <c r="A10">
         <v>10</v>
       </c>
@@ -5727,7 +5842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" ht="12.75">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5960,7 +6075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77" ht="12.75">
       <c r="A12">
         <v>12</v>
       </c>
@@ -6193,7 +6308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77" ht="12.75">
       <c r="A13">
         <v>13</v>
       </c>
@@ -6426,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77" ht="12.75">
       <c r="A14">
         <v>14</v>
       </c>
@@ -6659,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77" ht="12.75">
       <c r="A15">
         <v>15</v>
       </c>
@@ -6892,7 +7007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77" ht="12.75">
       <c r="A16">
         <v>16</v>
       </c>
@@ -7125,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" ht="12.75">
       <c r="A17">
         <v>17</v>
       </c>
@@ -7358,7 +7473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" ht="12.75">
       <c r="A18">
         <v>18</v>
       </c>
@@ -7591,7 +7706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:77" ht="12.75">
       <c r="A19">
         <v>19</v>
       </c>
@@ -7824,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:77" ht="12.75">
       <c r="A20">
         <v>20</v>
       </c>
@@ -8057,7 +8172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:77" ht="12.75">
       <c r="A21">
         <v>21</v>
       </c>
@@ -8290,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:77" ht="12.75">
       <c r="A22">
         <v>22</v>
       </c>
@@ -8523,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:77" ht="12.75">
       <c r="A23">
         <v>23</v>
       </c>
@@ -8756,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:77" ht="12.75">
       <c r="A24">
         <v>24</v>
       </c>
@@ -8989,7 +9104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:77" ht="12.75">
       <c r="A25">
         <v>25</v>
       </c>
@@ -9222,7 +9337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:77" ht="12.75">
       <c r="A26">
         <v>26</v>
       </c>
@@ -9455,7 +9570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:77" ht="12.75">
       <c r="A27">
         <v>27</v>
       </c>
@@ -9688,7 +9803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:77" ht="12.75">
       <c r="A28">
         <v>28</v>
       </c>
@@ -9921,7 +10036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:77" ht="12.75">
       <c r="A29">
         <v>29</v>
       </c>
@@ -10154,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:77" ht="12.75">
       <c r="A30">
         <v>30</v>
       </c>
@@ -10387,7 +10502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:77" ht="12.75">
       <c r="A31">
         <v>31</v>
       </c>
@@ -10620,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:77" ht="12.75">
       <c r="A32">
         <v>32</v>
       </c>
@@ -10853,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:77" ht="12.75">
       <c r="A33">
         <v>33</v>
       </c>
@@ -11086,7 +11201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:77" ht="12.75">
       <c r="A34">
         <v>34</v>
       </c>
@@ -11319,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:77" ht="12.75">
       <c r="A35">
         <v>35</v>
       </c>
@@ -11552,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:77" ht="12.75">
       <c r="A36">
         <v>36</v>
       </c>
@@ -11785,7 +11900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:77" ht="12.75">
       <c r="A37">
         <v>37</v>
       </c>
@@ -12018,7 +12133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:77" ht="12.75">
       <c r="A38">
         <v>38</v>
       </c>
@@ -12251,7 +12366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:77" ht="12.75">
       <c r="A39">
         <v>39</v>
       </c>
@@ -12484,7 +12599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:77" ht="12.75">
       <c r="A40">
         <v>40</v>
       </c>
@@ -12717,7 +12832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:77" ht="12.75">
       <c r="A41">
         <v>41</v>
       </c>
@@ -12950,7 +13065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:77" ht="12.75">
       <c r="A42">
         <v>42</v>
       </c>
@@ -13183,7 +13298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:77" ht="12.75">
       <c r="A43">
         <v>43</v>
       </c>
@@ -13416,7 +13531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:77" ht="12.75">
       <c r="A44">
         <v>44</v>
       </c>
@@ -13649,7 +13764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:77" ht="12.75">
       <c r="A45">
         <v>45</v>
       </c>
@@ -13882,7 +13997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:77" ht="12.75">
       <c r="A46">
         <v>46</v>
       </c>
@@ -14115,7 +14230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:77" ht="12.75">
       <c r="A47">
         <v>47</v>
       </c>
@@ -14348,7 +14463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:77" ht="12.75">
       <c r="A48">
         <v>48</v>
       </c>
@@ -14581,7 +14696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:77" ht="12.75">
       <c r="A49">
         <v>49</v>
       </c>
@@ -14814,7 +14929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:77" ht="12.75">
       <c r="A50">
         <v>50</v>
       </c>
@@ -15047,7 +15162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:77" ht="12.75">
       <c r="A51">
         <v>51</v>
       </c>
@@ -15280,7 +15395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:77" ht="12.75">
       <c r="A52">
         <v>52</v>
       </c>
@@ -15513,7 +15628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:77" ht="12.75">
       <c r="A53">
         <v>53</v>
       </c>
@@ -15746,7 +15861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:77" ht="12.75">
       <c r="A54">
         <v>54</v>
       </c>
@@ -15979,7 +16094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:77" ht="12.75">
       <c r="A55">
         <v>55</v>
       </c>
@@ -16212,7 +16327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:77" ht="12.75">
       <c r="A56">
         <v>56</v>
       </c>
@@ -16445,7 +16560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:77" ht="12.75">
       <c r="A57">
         <v>57</v>
       </c>
@@ -16678,7 +16793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:77" ht="12.75">
       <c r="A58">
         <v>58</v>
       </c>
@@ -16911,7 +17026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:77" ht="12.75">
       <c r="A59">
         <v>59</v>
       </c>
@@ -17144,7 +17259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:77" ht="12.75">
       <c r="A60">
         <v>60</v>
       </c>
@@ -17377,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:77" ht="12.75">
       <c r="A61">
         <v>61</v>
       </c>
@@ -17610,7 +17725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:77" ht="12.75">
       <c r="A62">
         <v>62</v>
       </c>
@@ -17843,7 +17958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:77" ht="12.75">
       <c r="A63">
         <v>63</v>
       </c>
@@ -18076,7 +18191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:77" ht="12.75">
       <c r="A64">
         <v>64</v>
       </c>
@@ -18309,7 +18424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:77" ht="12.75">
       <c r="A65">
         <v>65</v>
       </c>
@@ -18542,7 +18657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:77" ht="12.75">
       <c r="A66">
         <v>66</v>
       </c>
@@ -18775,7 +18890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:77" ht="12.75">
       <c r="A67">
         <v>67</v>
       </c>
@@ -19008,7 +19123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:77" ht="12.75">
       <c r="A68">
         <v>68</v>
       </c>
@@ -19241,7 +19356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:77" ht="12.75">
       <c r="A69">
         <v>69</v>
       </c>
@@ -19474,7 +19589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:77" ht="12.75">
       <c r="A70">
         <v>70</v>
       </c>
@@ -19707,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:77" ht="12.75">
       <c r="A71">
         <v>71</v>
       </c>
@@ -19940,7 +20055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:77" ht="12.75">
       <c r="A72">
         <v>72</v>
       </c>
@@ -20173,7 +20288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:77" ht="12.75">
       <c r="A73">
         <v>73</v>
       </c>
@@ -20406,7 +20521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:77" ht="12.75">
       <c r="A74">
         <v>74</v>
       </c>
@@ -20639,7 +20754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:77" ht="12.75">
       <c r="A75">
         <v>75</v>
       </c>
@@ -20872,7 +20987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:77" ht="12.75">
       <c r="A76">
         <v>76</v>
       </c>
@@ -21105,7 +21220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:77" ht="12.75">
       <c r="A77">
         <v>77</v>
       </c>
@@ -21338,7 +21453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:77" ht="12.75">
       <c r="A78">
         <v>78</v>
       </c>
@@ -21571,7 +21686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:77" ht="12.75">
       <c r="A79">
         <v>79</v>
       </c>
@@ -21804,7 +21919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:77" ht="12.75">
       <c r="A80">
         <v>80</v>
       </c>
@@ -22037,7 +22152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:77" ht="12.75">
       <c r="A81">
         <v>81</v>
       </c>
@@ -22270,7 +22385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:77" ht="12.75">
       <c r="A82">
         <v>82</v>
       </c>
@@ -22503,7 +22618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:77" ht="12.75">
       <c r="A83">
         <v>83</v>
       </c>
@@ -22736,7 +22851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:77" ht="12.75">
       <c r="A84">
         <v>84</v>
       </c>
@@ -22969,7 +23084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:77" ht="12.75">
       <c r="A85">
         <v>85</v>
       </c>
@@ -23202,7 +23317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:77" ht="12.75">
       <c r="A86">
         <v>86</v>
       </c>
@@ -23435,7 +23550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:77" ht="12.75">
       <c r="A87">
         <v>87</v>
       </c>
@@ -23668,7 +23783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:77" ht="12.75">
       <c r="A88">
         <v>88</v>
       </c>
@@ -23901,7 +24016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:77" ht="12.75">
       <c r="A89">
         <v>89</v>
       </c>
@@ -24134,7 +24249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:77" ht="12.75">
       <c r="A90">
         <v>90</v>
       </c>
@@ -24367,7 +24482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:77" ht="12.75">
       <c r="A91">
         <v>91</v>
       </c>
@@ -24600,7 +24715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:77" ht="12.75">
       <c r="A92">
         <v>92</v>
       </c>
@@ -24833,7 +24948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:77" ht="12.75">
       <c r="A93">
         <v>93</v>
       </c>
@@ -25066,7 +25181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:77" ht="12.75">
       <c r="A94">
         <v>94</v>
       </c>
@@ -25299,7 +25414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:77" ht="12.75">
       <c r="A95">
         <v>95</v>
       </c>
@@ -25532,7 +25647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:77" ht="12.75">
       <c r="A96">
         <v>96</v>
       </c>
@@ -25765,7 +25880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:77" ht="12.75">
       <c r="A97">
         <v>97</v>
       </c>
@@ -25998,7 +26113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:77" ht="12.75">
       <c r="A98">
         <v>98</v>
       </c>
@@ -26231,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:77" ht="12.75">
       <c r="A99">
         <v>99</v>
       </c>
@@ -26464,7 +26579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:77" ht="12.75">
       <c r="A100">
         <v>100</v>
       </c>
@@ -26697,7 +26812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:77" ht="12.75">
       <c r="A101">
         <v>101</v>
       </c>
@@ -26930,7 +27045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:77" ht="12.75">
       <c r="A102">
         <v>102</v>
       </c>
@@ -27163,7 +27278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:77" ht="12.75">
       <c r="A103">
         <v>103</v>
       </c>
@@ -27396,7 +27511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:77" ht="12.75">
       <c r="A104">
         <v>104</v>
       </c>
@@ -27629,7 +27744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:77" ht="12.75">
       <c r="A105">
         <v>105</v>
       </c>
@@ -27862,7 +27977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:77" ht="12.75">
       <c r="A106">
         <v>106</v>
       </c>
@@ -28095,7 +28210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:77" ht="12.75">
       <c r="A107">
         <v>107</v>
       </c>
@@ -28328,7 +28443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:77" ht="12.75">
       <c r="A108">
         <v>108</v>
       </c>
@@ -28561,7 +28676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:77" ht="12.75">
       <c r="A109">
         <v>109</v>
       </c>
@@ -28794,7 +28909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:77" ht="12.75">
       <c r="A110">
         <v>110</v>
       </c>
@@ -29027,7 +29142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:77" ht="12.75">
       <c r="A111">
         <v>111</v>
       </c>
@@ -29260,7 +29375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:77" ht="12.75">
       <c r="A112">
         <v>112</v>
       </c>
@@ -29493,7 +29608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:77" ht="12.75">
       <c r="A113">
         <v>113</v>
       </c>
@@ -29726,7 +29841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:77" ht="12.75">
       <c r="A114">
         <v>114</v>
       </c>
@@ -29959,7 +30074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:77" ht="12.75">
       <c r="A115">
         <v>115</v>
       </c>
@@ -30192,7 +30307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:77" ht="12.75">
       <c r="A116">
         <v>116</v>
       </c>
@@ -30425,7 +30540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:77" ht="12.75">
       <c r="A117">
         <v>117</v>
       </c>
@@ -30658,7 +30773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:77" ht="12.75">
       <c r="A118">
         <v>118</v>
       </c>
@@ -30891,7 +31006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:77" ht="12.75">
       <c r="A119">
         <v>119</v>
       </c>
@@ -31124,7 +31239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:77" ht="12.75">
       <c r="A120">
         <v>120</v>
       </c>
@@ -31357,7 +31472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:77" ht="12.75">
       <c r="A121">
         <v>121</v>
       </c>
@@ -31590,7 +31705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:77" ht="12.75">
       <c r="A122">
         <v>122</v>
       </c>
@@ -31823,7 +31938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:77" ht="12.75">
       <c r="A123">
         <v>123</v>
       </c>
@@ -32056,7 +32171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:77" ht="12.75">
       <c r="A124">
         <v>124</v>
       </c>
@@ -32289,7 +32404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:77" ht="12.75">
       <c r="A125">
         <v>125</v>
       </c>
@@ -32522,7 +32637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:77" ht="12.75">
       <c r="A126">
         <v>126</v>
       </c>
@@ -32755,7 +32870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:77" ht="12.75">
       <c r="A127">
         <v>127</v>
       </c>
@@ -32988,7 +33103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:77" ht="12.75">
       <c r="A128">
         <v>128</v>
       </c>
@@ -33221,7 +33336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:77" ht="12.75">
       <c r="A129">
         <v>129</v>
       </c>
@@ -33454,7 +33569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:77" ht="12.75">
       <c r="A130">
         <v>130</v>
       </c>
@@ -33687,7 +33802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:77" ht="12.75">
       <c r="A131">
         <v>131</v>
       </c>
@@ -33920,7 +34035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:77" ht="12.75">
       <c r="A132">
         <v>132</v>
       </c>
@@ -34153,7 +34268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:77" ht="12.75">
       <c r="A133">
         <v>133</v>
       </c>
@@ -34386,7 +34501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:77" ht="12.75">
       <c r="A134">
         <v>134</v>
       </c>
@@ -34619,7 +34734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:77" ht="12.75">
       <c r="A135">
         <v>135</v>
       </c>
@@ -34852,7 +34967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:77" ht="12.75">
       <c r="A136">
         <v>136</v>
       </c>
@@ -35085,7 +35200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:77" ht="12.75">
       <c r="A137">
         <v>137</v>
       </c>
@@ -35318,7 +35433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:77" ht="12.75">
       <c r="A138">
         <v>138</v>
       </c>
@@ -35551,7 +35666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:77" ht="12.75">
       <c r="A139">
         <v>139</v>
       </c>
@@ -35784,7 +35899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:77" ht="12.75">
       <c r="A140">
         <v>140</v>
       </c>
@@ -36017,7 +36132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:77" ht="12.75">
       <c r="A141">
         <v>141</v>
       </c>
@@ -36250,7 +36365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:77" ht="12.75">
       <c r="A142">
         <v>142</v>
       </c>
@@ -36483,7 +36598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:77" ht="12.75">
       <c r="A143">
         <v>143</v>
       </c>
@@ -36716,7 +36831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:77" ht="12.75">
       <c r="A144">
         <v>144</v>
       </c>
@@ -36949,7 +37064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:77" ht="12.75">
       <c r="A145">
         <v>145</v>
       </c>
@@ -37182,7 +37297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:77" ht="12.75">
       <c r="A146">
         <v>146</v>
       </c>
@@ -37415,7 +37530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:77" ht="12.75">
       <c r="A147">
         <v>147</v>
       </c>
@@ -37648,7 +37763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:77" ht="12.75">
       <c r="A148">
         <v>148</v>
       </c>
@@ -37881,7 +37996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:77" ht="12.75">
       <c r="A149">
         <v>149</v>
       </c>
@@ -38114,7 +38229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:77" ht="12.75">
       <c r="A150">
         <v>150</v>
       </c>
@@ -38347,7 +38462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:77" ht="12.75">
       <c r="A151">
         <v>151</v>
       </c>
@@ -38580,7 +38695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:77" ht="12.75">
       <c r="A152">
         <v>152</v>
       </c>
@@ -38813,7 +38928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:77" ht="12.75">
       <c r="A153">
         <v>153</v>
       </c>
@@ -39046,7 +39161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:77" ht="12.75">
       <c r="A154">
         <v>154</v>
       </c>
@@ -39279,7 +39394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:77" ht="12.75">
       <c r="A155">
         <v>155</v>
       </c>
@@ -39512,7 +39627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:77" ht="12.75">
       <c r="A156">
         <v>156</v>
       </c>
@@ -39745,7 +39860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:77" ht="12.75">
       <c r="A157">
         <v>157</v>
       </c>
@@ -39978,7 +40093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:77" ht="12.75">
       <c r="A158">
         <v>158</v>
       </c>
@@ -40211,7 +40326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:77" ht="12.75">
       <c r="A159">
         <v>159</v>
       </c>
@@ -40444,7 +40559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:77" ht="12.75">
       <c r="A160">
         <v>160</v>
       </c>
@@ -40677,7 +40792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:77" ht="12.75">
       <c r="A161">
         <v>161</v>
       </c>
@@ -40910,7 +41025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:77" ht="12.75">
       <c r="A162">
         <v>162</v>
       </c>
@@ -41143,7 +41258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:77" ht="12.75">
       <c r="A163">
         <v>163</v>
       </c>
@@ -41376,7 +41491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:77" ht="12.75">
       <c r="A164">
         <v>164</v>
       </c>
@@ -41609,7 +41724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:77" ht="12.75">
       <c r="A165">
         <v>165</v>
       </c>
@@ -41842,7 +41957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:77" ht="12.75">
       <c r="A166">
         <v>166</v>
       </c>
@@ -42075,7 +42190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:77" ht="12.75">
       <c r="A167">
         <v>167</v>
       </c>
@@ -42308,7 +42423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:77" ht="12.75">
       <c r="A168">
         <v>168</v>
       </c>
@@ -42541,7 +42656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:77" ht="12.75">
       <c r="A169">
         <v>169</v>
       </c>
@@ -42774,7 +42889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:77" ht="12.75">
       <c r="A170">
         <v>170</v>
       </c>
@@ -43007,7 +43122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:77" ht="12.75">
       <c r="A171">
         <v>171</v>
       </c>
@@ -43240,7 +43355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:77" ht="12.75">
       <c r="A172">
         <v>172</v>
       </c>
@@ -43473,7 +43588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:77" ht="12.75">
       <c r="A173">
         <v>173</v>
       </c>
@@ -43706,7 +43821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:77" ht="12.75">
       <c r="A174">
         <v>174</v>
       </c>
@@ -43939,7 +44054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:77" ht="12.75">
       <c r="A175">
         <v>175</v>
       </c>
@@ -44172,7 +44287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:77" ht="12.75">
       <c r="A176">
         <v>176</v>
       </c>
@@ -44405,7 +44520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:77" ht="12.75">
       <c r="A177">
         <v>177</v>
       </c>
@@ -44638,7 +44753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:77" ht="12.75">
       <c r="A178">
         <v>178</v>
       </c>
@@ -44871,7 +44986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:77" ht="12.75">
       <c r="A179">
         <v>179</v>
       </c>
@@ -45104,7 +45219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:77" ht="12.75">
       <c r="A180">
         <v>180</v>
       </c>
@@ -45337,7 +45452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:77" ht="12.75">
       <c r="A181">
         <v>181</v>
       </c>
@@ -45570,7 +45685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:77" ht="12.75">
       <c r="A182">
         <v>182</v>
       </c>
@@ -45803,7 +45918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:77" ht="12.75">
       <c r="A183">
         <v>183</v>
       </c>
@@ -46036,7 +46151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:77" ht="12.75">
       <c r="A184">
         <v>184</v>
       </c>
@@ -46269,7 +46384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:77" ht="12.75">
       <c r="A185">
         <v>185</v>
       </c>
@@ -46502,7 +46617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:77" ht="12.75">
       <c r="A186">
         <v>186</v>
       </c>
@@ -46735,7 +46850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:77" ht="12.75">
       <c r="A187">
         <v>187</v>
       </c>
@@ -46968,7 +47083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:77" ht="12.75">
       <c r="A188">
         <v>188</v>
       </c>
@@ -47201,7 +47316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:77" ht="12.75">
       <c r="A189">
         <v>189</v>
       </c>
@@ -47434,7 +47549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:77" ht="12.75">
       <c r="A190">
         <v>190</v>
       </c>
@@ -47667,7 +47782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:77" ht="12.75">
       <c r="A191">
         <v>191</v>
       </c>
@@ -47900,7 +48015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:77" ht="12.75">
       <c r="A192">
         <v>192</v>
       </c>
@@ -48133,7 +48248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:77" ht="12.75">
       <c r="A193">
         <v>193</v>
       </c>
@@ -48366,7 +48481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:77" ht="12.75">
       <c r="A194">
         <v>194</v>
       </c>
@@ -48599,7 +48714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:77" ht="12.75">
       <c r="A195">
         <v>195</v>
       </c>
@@ -48832,7 +48947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:77" ht="12.75">
       <c r="A196">
         <v>196</v>
       </c>
@@ -49065,7 +49180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:77" ht="12.75">
       <c r="A197">
         <v>197</v>
       </c>
@@ -49298,7 +49413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:77" ht="12.75">
       <c r="A198">
         <v>198</v>
       </c>
@@ -49531,7 +49646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:77" ht="12.75">
       <c r="A199">
         <v>199</v>
       </c>
@@ -49764,7 +49879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:77" ht="12.75">
       <c r="A200">
         <v>200</v>
       </c>
@@ -49997,7 +50112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:77" ht="12.75">
       <c r="A201">
         <v>201</v>
       </c>
@@ -50230,7 +50345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:77" ht="12.75">
       <c r="A202">
         <v>202</v>
       </c>
@@ -50463,7 +50578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:77" ht="12.75">
       <c r="A203">
         <v>203</v>
       </c>
@@ -50696,7 +50811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:77" ht="12.75">
       <c r="A204">
         <v>204</v>
       </c>
@@ -50929,7 +51044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:77" ht="12.75">
       <c r="A205">
         <v>205</v>
       </c>
@@ -51162,7 +51277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:77" ht="12.75">
       <c r="A206">
         <v>206</v>
       </c>
@@ -51395,7 +51510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:77" ht="12.75">
       <c r="A207">
         <v>207</v>
       </c>
@@ -51628,7 +51743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:77" ht="12.75">
       <c r="A208">
         <v>208</v>
       </c>
@@ -51861,7 +51976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:77" ht="12.75">
       <c r="A209">
         <v>209</v>
       </c>
@@ -52094,7 +52209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:77" ht="12.75">
       <c r="A210">
         <v>210</v>
       </c>
@@ -52327,7 +52442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:77" ht="12.75">
       <c r="A211">
         <v>211</v>
       </c>
@@ -52560,7 +52675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:77" ht="12.75">
       <c r="A212">
         <v>212</v>
       </c>
@@ -52793,7 +52908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:77" ht="12.75">
       <c r="A213">
         <v>213</v>
       </c>
@@ -53026,7 +53141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:77" ht="12.75">
       <c r="A214">
         <v>214</v>
       </c>
@@ -53259,7 +53374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:77" ht="12.75">
       <c r="A215">
         <v>215</v>
       </c>
@@ -53492,7 +53607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:77" ht="12.75">
       <c r="A216">
         <v>216</v>
       </c>
@@ -53725,7 +53840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:77" ht="12.75">
       <c r="A217">
         <v>217</v>
       </c>
@@ -53958,7 +54073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:77" ht="12.75">
       <c r="A218">
         <v>218</v>
       </c>
@@ -54191,7 +54306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:77" ht="12.75">
       <c r="A219">
         <v>219</v>
       </c>
@@ -54424,7 +54539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:77" ht="12.75">
       <c r="A220">
         <v>220</v>
       </c>
@@ -54657,7 +54772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:77" ht="12.75">
       <c r="A221">
         <v>221</v>
       </c>
@@ -54890,7 +55005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:77" ht="12.75">
       <c r="A222">
         <v>222</v>
       </c>
@@ -55123,7 +55238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:77" ht="12.75">
       <c r="A223">
         <v>223</v>
       </c>
@@ -55356,7 +55471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:77" ht="12.75">
       <c r="A224">
         <v>224</v>
       </c>
@@ -55589,7 +55704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:77" ht="12.75">
       <c r="A225">
         <v>225</v>
       </c>
@@ -55822,7 +55937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:77" ht="12.75">
       <c r="A226">
         <v>226</v>
       </c>
@@ -56055,7 +56170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:77" ht="12.75">
       <c r="A227">
         <v>227</v>
       </c>
@@ -56288,7 +56403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:77" ht="12.75">
       <c r="A228">
         <v>228</v>
       </c>
@@ -56521,7 +56636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:77" ht="12.75">
       <c r="A229">
         <v>229</v>
       </c>
@@ -56754,7 +56869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:77" ht="12.75">
       <c r="A230">
         <v>230</v>
       </c>
@@ -56987,7 +57102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:77" ht="12.75">
       <c r="A231">
         <v>231</v>
       </c>
@@ -57220,7 +57335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:77" ht="12.75">
       <c r="A232">
         <v>232</v>
       </c>
@@ -57453,7 +57568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:77" ht="12.75">
       <c r="A233">
         <v>233</v>
       </c>
@@ -57686,7 +57801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:77" ht="12.75">
       <c r="A234">
         <v>234</v>
       </c>
@@ -57919,7 +58034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:77" ht="12.75">
       <c r="A235">
         <v>235</v>
       </c>
@@ -58152,7 +58267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:77" ht="12.75">
       <c r="A236">
         <v>236</v>
       </c>
@@ -58385,7 +58500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:77" ht="12.75">
       <c r="A237">
         <v>237</v>
       </c>
@@ -58618,7 +58733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:77" ht="12.75">
       <c r="A238">
         <v>238</v>
       </c>
@@ -58851,7 +58966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:77" ht="12.75">
       <c r="A239">
         <v>239</v>
       </c>
@@ -59084,7 +59199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:77" ht="12.75">
       <c r="A240">
         <v>240</v>
       </c>
@@ -59317,7 +59432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:77" ht="12.75">
       <c r="A241">
         <v>241</v>
       </c>
@@ -59550,7 +59665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:77" ht="12.75">
       <c r="A242">
         <v>242</v>
       </c>
@@ -59783,7 +59898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:77" ht="12.75">
       <c r="A243">
         <v>243</v>
       </c>
@@ -60016,7 +60131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:77" ht="12.75">
       <c r="A244">
         <v>244</v>
       </c>
@@ -60249,7 +60364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:77" ht="12.75">
       <c r="A245">
         <v>245</v>
       </c>
@@ -60482,7 +60597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:77" ht="12.75">
       <c r="A246">
         <v>246</v>
       </c>
@@ -60715,7 +60830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:77" ht="12.75">
       <c r="A247">
         <v>247</v>
       </c>
@@ -60948,7 +61063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:77" ht="12.75">
       <c r="A248">
         <v>248</v>
       </c>
@@ -61181,7 +61296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:77" ht="12.75">
       <c r="A249">
         <v>249</v>
       </c>
@@ -61414,7 +61529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:77" ht="12.75">
       <c r="A250">
         <v>250</v>
       </c>
@@ -61647,7 +61762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:77" ht="12.75">
       <c r="A251">
         <v>251</v>
       </c>
@@ -61880,7 +61995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:77" ht="12.75">
       <c r="A252">
         <v>252</v>
       </c>
@@ -62113,7 +62228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:77" ht="12.75">
       <c r="A253">
         <v>253</v>
       </c>
@@ -62346,7 +62461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:77" ht="12.75">
       <c r="A254">
         <v>254</v>
       </c>
@@ -62579,7 +62694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:77" ht="12.75">
       <c r="A255">
         <v>255</v>
       </c>
@@ -62812,7 +62927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:77" ht="12.75">
       <c r="A256">
         <v>256</v>
       </c>
@@ -63045,7 +63160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:77" ht="12.75">
       <c r="A257">
         <v>257</v>
       </c>
@@ -63278,7 +63393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:77" ht="12.75">
       <c r="A258">
         <v>258</v>
       </c>
@@ -63511,7 +63626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:77" ht="12.75">
       <c r="A259">
         <v>259</v>
       </c>
@@ -63744,7 +63859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:77" ht="12.75">
       <c r="A260">
         <v>260</v>
       </c>
@@ -63977,7 +64092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:77" ht="12.75">
       <c r="A261">
         <v>261</v>
       </c>
@@ -64210,7 +64325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:77" ht="12.75">
       <c r="A262">
         <v>262</v>
       </c>
@@ -64443,7 +64558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:77" ht="12.75">
       <c r="A263">
         <v>263</v>
       </c>
@@ -64676,7 +64791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:77" ht="12.75">
       <c r="A264">
         <v>264</v>
       </c>
@@ -64909,7 +65024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:77" ht="12.75">
       <c r="A265">
         <v>265</v>
       </c>
@@ -65142,7 +65257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:77" ht="12.75">
       <c r="A266">
         <v>266</v>
       </c>
@@ -65375,7 +65490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:77" ht="12.75">
       <c r="A267">
         <v>267</v>
       </c>
@@ -65608,7 +65723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:77" ht="12.75">
       <c r="A268">
         <v>268</v>
       </c>
@@ -65841,7 +65956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:77" ht="12.75">
       <c r="A269">
         <v>269</v>
       </c>
@@ -66074,7 +66189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:77" ht="12.75">
       <c r="A270">
         <v>270</v>
       </c>
@@ -66307,7 +66422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:77" ht="12.75">
       <c r="A271">
         <v>271</v>
       </c>
@@ -66540,7 +66655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:77" ht="12.75">
       <c r="A272">
         <v>272</v>
       </c>
@@ -66773,7 +66888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:77" ht="12.75">
       <c r="A273">
         <v>273</v>
       </c>
@@ -67006,7 +67121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:77" ht="12.75">
       <c r="A274">
         <v>274</v>
       </c>
@@ -67239,7 +67354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:77" ht="12.75">
       <c r="A275">
         <v>275</v>
       </c>
@@ -67472,7 +67587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:77" ht="12.75">
       <c r="A276">
         <v>276</v>
       </c>
@@ -67705,7 +67820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:77" ht="12.75">
       <c r="A277">
         <v>277</v>
       </c>
@@ -67938,7 +68053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:77" ht="12.75">
       <c r="A278">
         <v>278</v>
       </c>
@@ -68171,7 +68286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:77" ht="12.75">
       <c r="A279">
         <v>279</v>
       </c>
@@ -68404,7 +68519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:77" ht="12.75">
       <c r="A280">
         <v>280</v>
       </c>
@@ -68637,7 +68752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:77" ht="12.75">
       <c r="A281">
         <v>281</v>
       </c>
@@ -68870,7 +68985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:77" ht="12.75">
       <c r="A282">
         <v>282</v>
       </c>
@@ -69103,7 +69218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:77" ht="12.75">
       <c r="A283">
         <v>283</v>
       </c>
@@ -69336,7 +69451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:77" ht="12.75">
       <c r="A284">
         <v>284</v>
       </c>
@@ -69569,7 +69684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:77" ht="12.75">
       <c r="A285">
         <v>285</v>
       </c>
@@ -69802,7 +69917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:77" ht="12.75">
       <c r="A286">
         <v>286</v>
       </c>
@@ -70035,7 +70150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:77" ht="12.75">
       <c r="A287">
         <v>287</v>
       </c>
@@ -70268,7 +70383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:77" ht="12.75">
       <c r="A288">
         <v>288</v>
       </c>
@@ -70501,7 +70616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:77" ht="12.75">
       <c r="A289">
         <v>289</v>
       </c>
@@ -70734,7 +70849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:77" ht="12.75">
       <c r="A290">
         <v>290</v>
       </c>
@@ -70967,7 +71082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:77" ht="12.75">
       <c r="A291">
         <v>291</v>
       </c>
@@ -71200,7 +71315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:77" ht="12.75">
       <c r="A292">
         <v>292</v>
       </c>
@@ -71433,7 +71548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:77" ht="12.75">
       <c r="A293">
         <v>293</v>
       </c>
@@ -71666,7 +71781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:77" ht="12.75">
       <c r="A294">
         <v>294</v>
       </c>
@@ -71899,7 +72014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:77" ht="12.75">
       <c r="A295">
         <v>295</v>
       </c>
@@ -72132,7 +72247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:77" ht="12.75">
       <c r="A296">
         <v>296</v>
       </c>
@@ -72365,7 +72480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:77" ht="12.75">
       <c r="A297">
         <v>297</v>
       </c>
@@ -72598,7 +72713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:77" ht="12.75">
       <c r="A298">
         <v>298</v>
       </c>
@@ -72831,7 +72946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:77" ht="12.75">
       <c r="A299">
         <v>299</v>
       </c>
@@ -73064,7 +73179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:77" ht="12.75">
       <c r="A300">
         <v>300</v>
       </c>
@@ -73297,7 +73412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:77" ht="12.75">
       <c r="A301">
         <v>301</v>
       </c>
@@ -73530,7 +73645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:77" ht="12.75">
       <c r="A302">
         <v>302</v>
       </c>
@@ -73763,7 +73878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:77" ht="12.75">
       <c r="A303">
         <v>303</v>
       </c>
@@ -73996,7 +74111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:77" ht="12.75">
       <c r="A304">
         <v>304</v>
       </c>
@@ -74229,7 +74344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:77" ht="12.75">
       <c r="A305">
         <v>305</v>
       </c>
@@ -74462,7 +74577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:77" ht="12.75">
       <c r="A306">
         <v>306</v>
       </c>
@@ -74695,7 +74810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:77" ht="12.75">
       <c r="A307">
         <v>307</v>
       </c>
@@ -74928,7 +75043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:77" ht="12.75">
       <c r="A308">
         <v>308</v>
       </c>
@@ -75161,7 +75276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:77" ht="12.75">
       <c r="A309">
         <v>309</v>
       </c>
@@ -75394,7 +75509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:77" ht="12.75">
       <c r="A310">
         <v>310</v>
       </c>
@@ -75627,7 +75742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:77" ht="12.75">
       <c r="A311">
         <v>311</v>
       </c>
@@ -75860,7 +75975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:77" ht="12.75">
       <c r="A312">
         <v>312</v>
       </c>
@@ -76093,7 +76208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:77" ht="12.75">
       <c r="A313">
         <v>313</v>
       </c>
@@ -76326,7 +76441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:77" ht="12.75">
       <c r="A314">
         <v>314</v>
       </c>
@@ -76559,7 +76674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:77" ht="12.75">
       <c r="A315">
         <v>315</v>
       </c>
@@ -76792,7 +76907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:77" ht="12.75">
       <c r="A316">
         <v>316</v>
       </c>
@@ -77025,7 +77140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:77" ht="12.75">
       <c r="A317">
         <v>317</v>
       </c>
@@ -77258,7 +77373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:77" ht="12.75">
       <c r="A318">
         <v>318</v>
       </c>
@@ -77491,7 +77606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:77" ht="12.75">
       <c r="A319">
         <v>319</v>
       </c>
@@ -77724,7 +77839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:77" ht="12.75">
       <c r="A320">
         <v>320</v>
       </c>
@@ -77957,7 +78072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:77" ht="12.75">
       <c r="A321">
         <v>321</v>
       </c>
@@ -78190,7 +78305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:77" ht="12.75">
       <c r="A322">
         <v>322</v>
       </c>
@@ -78423,7 +78538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:77" ht="12.75">
       <c r="A323">
         <v>323</v>
       </c>
@@ -78656,7 +78771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:77" ht="12.75">
       <c r="A324">
         <v>324</v>
       </c>
@@ -78889,7 +79004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:77" ht="12.75">
       <c r="A325">
         <v>325</v>
       </c>
@@ -79122,7 +79237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:77" ht="12.75">
       <c r="A326">
         <v>326</v>
       </c>
@@ -79355,10 +79470,2105 @@
         <v>2</v>
       </c>
     </row>
+    <row r="327" spans="1:77" ht="12.75">
+      <c r="A327">
+        <v>327</v>
+      </c>
+      <c r="B327" t="s">
+        <v>969</v>
+      </c>
+      <c r="C327" t="s">
+        <v>970</v>
+      </c>
+      <c r="D327" t="s">
+        <v>79</v>
+      </c>
+      <c r="E327" t="s">
+        <v>80</v>
+      </c>
+      <c r="F327" t="s">
+        <v>971</v>
+      </c>
+      <c r="G327">
+        <v>165</v>
+      </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
+        <v>50</v>
+      </c>
+      <c r="J327">
+        <v>3</v>
+      </c>
+      <c r="K327">
+        <v>14</v>
+      </c>
+      <c r="L327">
+        <v>1</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="N327">
+        <v>1</v>
+      </c>
+      <c r="O327">
+        <v>3</v>
+      </c>
+      <c r="P327">
+        <v>3</v>
+      </c>
+      <c r="Q327">
+        <v>4</v>
+      </c>
+      <c r="R327">
+        <v>2</v>
+      </c>
+      <c r="S327">
+        <v>3</v>
+      </c>
+      <c r="T327">
+        <v>5</v>
+      </c>
+      <c r="U327">
+        <v>5</v>
+      </c>
+      <c r="V327">
+        <v>4</v>
+      </c>
+      <c r="W327">
+        <v>2</v>
+      </c>
+      <c r="X327">
+        <v>1</v>
+      </c>
+      <c r="Y327">
+        <v>1</v>
+      </c>
+      <c r="Z327">
+        <v>3</v>
+      </c>
+      <c r="AA327">
+        <v>2</v>
+      </c>
+      <c r="AB327">
+        <v>4</v>
+      </c>
+      <c r="AC327">
+        <v>1</v>
+      </c>
+      <c r="AD327">
+        <v>3</v>
+      </c>
+      <c r="AE327">
+        <v>3</v>
+      </c>
+      <c r="AF327">
+        <v>4</v>
+      </c>
+      <c r="AG327">
+        <v>3</v>
+      </c>
+      <c r="AH327">
+        <v>4</v>
+      </c>
+      <c r="AI327">
+        <v>3</v>
+      </c>
+      <c r="AJ327">
+        <v>4</v>
+      </c>
+      <c r="AK327">
+        <v>5</v>
+      </c>
+      <c r="AL327">
+        <v>3</v>
+      </c>
+      <c r="AM327">
+        <v>3</v>
+      </c>
+      <c r="AN327">
+        <v>2</v>
+      </c>
+      <c r="AO327">
+        <v>5</v>
+      </c>
+      <c r="AP327">
+        <v>1</v>
+      </c>
+      <c r="AQ327">
+        <v>5</v>
+      </c>
+      <c r="AR327">
+        <v>4</v>
+      </c>
+      <c r="AS327">
+        <v>2</v>
+      </c>
+      <c r="AT327">
+        <v>5</v>
+      </c>
+      <c r="AU327">
+        <v>2</v>
+      </c>
+      <c r="AV327">
+        <v>4</v>
+      </c>
+      <c r="AW327">
+        <v>3</v>
+      </c>
+      <c r="AX327">
+        <v>2</v>
+      </c>
+      <c r="AY327">
+        <v>4</v>
+      </c>
+      <c r="AZ327">
+        <v>3</v>
+      </c>
+      <c r="BA327">
+        <v>3</v>
+      </c>
+      <c r="BB327">
+        <v>5</v>
+      </c>
+      <c r="BC327">
+        <v>4</v>
+      </c>
+      <c r="BD327">
+        <v>3</v>
+      </c>
+      <c r="BE327">
+        <v>3</v>
+      </c>
+      <c r="BF327">
+        <v>4</v>
+      </c>
+      <c r="BG327">
+        <v>4</v>
+      </c>
+      <c r="BH327">
+        <v>3</v>
+      </c>
+      <c r="BI327">
+        <v>3</v>
+      </c>
+      <c r="BJ327">
+        <v>4</v>
+      </c>
+      <c r="BK327">
+        <v>4</v>
+      </c>
+      <c r="BL327">
+        <v>3</v>
+      </c>
+      <c r="BM327">
+        <v>2</v>
+      </c>
+      <c r="BN327">
+        <v>1</v>
+      </c>
+      <c r="BO327">
+        <v>1</v>
+      </c>
+      <c r="BP327">
+        <v>1</v>
+      </c>
+      <c r="BQ327">
+        <v>1</v>
+      </c>
+      <c r="BR327">
+        <v>2</v>
+      </c>
+      <c r="BS327">
+        <v>1</v>
+      </c>
+      <c r="BT327">
+        <v>2</v>
+      </c>
+      <c r="BU327">
+        <v>1</v>
+      </c>
+      <c r="BV327">
+        <v>1</v>
+      </c>
+      <c r="BW327">
+        <v>2</v>
+      </c>
+      <c r="BX327">
+        <v>1</v>
+      </c>
+      <c r="BY327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:77" ht="12.75">
+      <c r="A328">
+        <v>328</v>
+      </c>
+      <c r="B328" t="s">
+        <v>972</v>
+      </c>
+      <c r="C328" t="s">
+        <v>973</v>
+      </c>
+      <c r="D328" t="s">
+        <v>79</v>
+      </c>
+      <c r="E328" t="s">
+        <v>80</v>
+      </c>
+      <c r="F328" t="s">
+        <v>974</v>
+      </c>
+      <c r="G328">
+        <v>181</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>35</v>
+      </c>
+      <c r="J328">
+        <v>5</v>
+      </c>
+      <c r="K328">
+        <v>9</v>
+      </c>
+      <c r="L328">
+        <v>1</v>
+      </c>
+      <c r="M328">
+        <v>3</v>
+      </c>
+      <c r="N328">
+        <v>3</v>
+      </c>
+      <c r="O328">
+        <v>4</v>
+      </c>
+      <c r="P328">
+        <v>4</v>
+      </c>
+      <c r="Q328">
+        <v>3</v>
+      </c>
+      <c r="R328">
+        <v>3</v>
+      </c>
+      <c r="S328">
+        <v>3</v>
+      </c>
+      <c r="T328">
+        <v>4</v>
+      </c>
+      <c r="U328">
+        <v>3</v>
+      </c>
+      <c r="V328">
+        <v>3</v>
+      </c>
+      <c r="W328">
+        <v>3</v>
+      </c>
+      <c r="X328">
+        <v>3</v>
+      </c>
+      <c r="Y328">
+        <v>4</v>
+      </c>
+      <c r="Z328">
+        <v>3</v>
+      </c>
+      <c r="AA328">
+        <v>3</v>
+      </c>
+      <c r="AB328">
+        <v>4</v>
+      </c>
+      <c r="AC328">
+        <v>1</v>
+      </c>
+      <c r="AD328">
+        <v>3</v>
+      </c>
+      <c r="AE328">
+        <v>4</v>
+      </c>
+      <c r="AF328">
+        <v>3</v>
+      </c>
+      <c r="AG328">
+        <v>3</v>
+      </c>
+      <c r="AH328">
+        <v>4</v>
+      </c>
+      <c r="AI328">
+        <v>4</v>
+      </c>
+      <c r="AJ328">
+        <v>4</v>
+      </c>
+      <c r="AK328">
+        <v>4</v>
+      </c>
+      <c r="AL328">
+        <v>4</v>
+      </c>
+      <c r="AM328">
+        <v>4</v>
+      </c>
+      <c r="AN328">
+        <v>4</v>
+      </c>
+      <c r="AO328">
+        <v>3</v>
+      </c>
+      <c r="AP328">
+        <v>4</v>
+      </c>
+      <c r="AQ328">
+        <v>4</v>
+      </c>
+      <c r="AR328">
+        <v>4</v>
+      </c>
+      <c r="AS328">
+        <v>4</v>
+      </c>
+      <c r="AT328">
+        <v>4</v>
+      </c>
+      <c r="AU328">
+        <v>4</v>
+      </c>
+      <c r="AV328">
+        <v>4</v>
+      </c>
+      <c r="AW328">
+        <v>3</v>
+      </c>
+      <c r="AX328">
+        <v>4</v>
+      </c>
+      <c r="AY328">
+        <v>4</v>
+      </c>
+      <c r="AZ328">
+        <v>3</v>
+      </c>
+      <c r="BA328">
+        <v>3</v>
+      </c>
+      <c r="BB328">
+        <v>3</v>
+      </c>
+      <c r="BC328">
+        <v>3</v>
+      </c>
+      <c r="BD328">
+        <v>3</v>
+      </c>
+      <c r="BE328">
+        <v>3</v>
+      </c>
+      <c r="BF328">
+        <v>3</v>
+      </c>
+      <c r="BG328">
+        <v>4</v>
+      </c>
+      <c r="BH328">
+        <v>4</v>
+      </c>
+      <c r="BI328">
+        <v>3</v>
+      </c>
+      <c r="BJ328">
+        <v>4</v>
+      </c>
+      <c r="BK328">
+        <v>4</v>
+      </c>
+      <c r="BL328">
+        <v>4</v>
+      </c>
+      <c r="BM328">
+        <v>2</v>
+      </c>
+      <c r="BN328">
+        <v>1</v>
+      </c>
+      <c r="BO328">
+        <v>1</v>
+      </c>
+      <c r="BP328">
+        <v>1</v>
+      </c>
+      <c r="BQ328">
+        <v>1</v>
+      </c>
+      <c r="BR328">
+        <v>1</v>
+      </c>
+      <c r="BS328">
+        <v>1</v>
+      </c>
+      <c r="BT328">
+        <v>1</v>
+      </c>
+      <c r="BU328">
+        <v>1</v>
+      </c>
+      <c r="BV328">
+        <v>1</v>
+      </c>
+      <c r="BW328">
+        <v>2</v>
+      </c>
+      <c r="BX328">
+        <v>1</v>
+      </c>
+      <c r="BY328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:77" ht="12.75">
+      <c r="A329">
+        <v>329</v>
+      </c>
+      <c r="B329" t="s">
+        <v>975</v>
+      </c>
+      <c r="C329" t="s">
+        <v>976</v>
+      </c>
+      <c r="D329" t="s">
+        <v>79</v>
+      </c>
+      <c r="E329" t="s">
+        <v>80</v>
+      </c>
+      <c r="F329" t="s">
+        <v>977</v>
+      </c>
+      <c r="G329">
+        <v>178</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>20</v>
+      </c>
+      <c r="J329">
+        <v>4</v>
+      </c>
+      <c r="K329">
+        <v>8</v>
+      </c>
+      <c r="L329">
+        <v>1</v>
+      </c>
+      <c r="M329">
+        <v>4</v>
+      </c>
+      <c r="N329">
+        <v>5</v>
+      </c>
+      <c r="O329">
+        <v>5</v>
+      </c>
+      <c r="P329">
+        <v>2</v>
+      </c>
+      <c r="Q329">
+        <v>4</v>
+      </c>
+      <c r="R329">
+        <v>3</v>
+      </c>
+      <c r="S329">
+        <v>4</v>
+      </c>
+      <c r="T329">
+        <v>4</v>
+      </c>
+      <c r="U329">
+        <v>3</v>
+      </c>
+      <c r="V329">
+        <v>2</v>
+      </c>
+      <c r="W329">
+        <v>3</v>
+      </c>
+      <c r="X329">
+        <v>2</v>
+      </c>
+      <c r="Y329">
+        <v>5</v>
+      </c>
+      <c r="Z329">
+        <v>4</v>
+      </c>
+      <c r="AA329">
+        <v>4</v>
+      </c>
+      <c r="AB329">
+        <v>3</v>
+      </c>
+      <c r="AC329">
+        <v>1</v>
+      </c>
+      <c r="AD329">
+        <v>3</v>
+      </c>
+      <c r="AE329">
+        <v>3</v>
+      </c>
+      <c r="AF329">
+        <v>4</v>
+      </c>
+      <c r="AG329">
+        <v>4</v>
+      </c>
+      <c r="AH329">
+        <v>1</v>
+      </c>
+      <c r="AI329">
+        <v>3</v>
+      </c>
+      <c r="AJ329">
+        <v>3</v>
+      </c>
+      <c r="AK329">
+        <v>4</v>
+      </c>
+      <c r="AL329">
+        <v>5</v>
+      </c>
+      <c r="AM329">
+        <v>4</v>
+      </c>
+      <c r="AN329">
+        <v>4</v>
+      </c>
+      <c r="AO329">
+        <v>3</v>
+      </c>
+      <c r="AP329">
+        <v>2</v>
+      </c>
+      <c r="AQ329">
+        <v>3</v>
+      </c>
+      <c r="AR329">
+        <v>2</v>
+      </c>
+      <c r="AS329">
+        <v>5</v>
+      </c>
+      <c r="AT329">
+        <v>3</v>
+      </c>
+      <c r="AU329">
+        <v>4</v>
+      </c>
+      <c r="AV329">
+        <v>2</v>
+      </c>
+      <c r="AW329">
+        <v>3</v>
+      </c>
+      <c r="AX329">
+        <v>5</v>
+      </c>
+      <c r="AY329">
+        <v>3</v>
+      </c>
+      <c r="AZ329">
+        <v>2</v>
+      </c>
+      <c r="BA329">
+        <v>4</v>
+      </c>
+      <c r="BB329">
+        <v>5</v>
+      </c>
+      <c r="BC329">
+        <v>4</v>
+      </c>
+      <c r="BD329">
+        <v>4</v>
+      </c>
+      <c r="BE329">
+        <v>3</v>
+      </c>
+      <c r="BF329">
+        <v>3</v>
+      </c>
+      <c r="BG329">
+        <v>5</v>
+      </c>
+      <c r="BH329">
+        <v>2</v>
+      </c>
+      <c r="BI329">
+        <v>3</v>
+      </c>
+      <c r="BJ329">
+        <v>4</v>
+      </c>
+      <c r="BK329">
+        <v>5</v>
+      </c>
+      <c r="BL329">
+        <v>3</v>
+      </c>
+      <c r="BM329">
+        <v>1</v>
+      </c>
+      <c r="BN329">
+        <v>1</v>
+      </c>
+      <c r="BO329">
+        <v>2</v>
+      </c>
+      <c r="BP329">
+        <v>1</v>
+      </c>
+      <c r="BQ329">
+        <v>2</v>
+      </c>
+      <c r="BR329">
+        <v>2</v>
+      </c>
+      <c r="BS329">
+        <v>1</v>
+      </c>
+      <c r="BT329">
+        <v>1</v>
+      </c>
+      <c r="BU329">
+        <v>1</v>
+      </c>
+      <c r="BV329">
+        <v>2</v>
+      </c>
+      <c r="BW329">
+        <v>2</v>
+      </c>
+      <c r="BX329">
+        <v>1</v>
+      </c>
+      <c r="BY329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:77" ht="12.75">
+      <c r="A330">
+        <v>330</v>
+      </c>
+      <c r="B330" t="s">
+        <v>978</v>
+      </c>
+      <c r="C330" t="s">
+        <v>258</v>
+      </c>
+      <c r="D330" t="s">
+        <v>79</v>
+      </c>
+      <c r="E330" t="s">
+        <v>80</v>
+      </c>
+      <c r="F330" t="s">
+        <v>979</v>
+      </c>
+      <c r="G330">
+        <v>178</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>21</v>
+      </c>
+      <c r="J330">
+        <v>5</v>
+      </c>
+      <c r="K330">
+        <v>10</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330">
+        <v>3</v>
+      </c>
+      <c r="N330">
+        <v>3</v>
+      </c>
+      <c r="O330">
+        <v>3</v>
+      </c>
+      <c r="P330">
+        <v>2</v>
+      </c>
+      <c r="Q330">
+        <v>3</v>
+      </c>
+      <c r="R330">
+        <v>3</v>
+      </c>
+      <c r="S330">
+        <v>2</v>
+      </c>
+      <c r="T330">
+        <v>4</v>
+      </c>
+      <c r="U330">
+        <v>3</v>
+      </c>
+      <c r="V330">
+        <v>4</v>
+      </c>
+      <c r="W330">
+        <v>2</v>
+      </c>
+      <c r="X330">
+        <v>1</v>
+      </c>
+      <c r="Y330">
+        <v>4</v>
+      </c>
+      <c r="Z330">
+        <v>2</v>
+      </c>
+      <c r="AA330">
+        <v>2</v>
+      </c>
+      <c r="AB330">
+        <v>4</v>
+      </c>
+      <c r="AC330">
+        <v>1</v>
+      </c>
+      <c r="AD330">
+        <v>2</v>
+      </c>
+      <c r="AE330">
+        <v>5</v>
+      </c>
+      <c r="AF330">
+        <v>4</v>
+      </c>
+      <c r="AG330">
+        <v>5</v>
+      </c>
+      <c r="AH330">
+        <v>5</v>
+      </c>
+      <c r="AI330">
+        <v>2</v>
+      </c>
+      <c r="AJ330">
+        <v>3</v>
+      </c>
+      <c r="AK330">
+        <v>4</v>
+      </c>
+      <c r="AL330">
+        <v>3</v>
+      </c>
+      <c r="AM330">
+        <v>4</v>
+      </c>
+      <c r="AN330">
+        <v>4</v>
+      </c>
+      <c r="AO330">
+        <v>2</v>
+      </c>
+      <c r="AP330">
+        <v>4</v>
+      </c>
+      <c r="AQ330">
+        <v>4</v>
+      </c>
+      <c r="AR330">
+        <v>4</v>
+      </c>
+      <c r="AS330">
+        <v>5</v>
+      </c>
+      <c r="AT330">
+        <v>4</v>
+      </c>
+      <c r="AU330">
+        <v>4</v>
+      </c>
+      <c r="AV330">
+        <v>2</v>
+      </c>
+      <c r="AW330">
+        <v>4</v>
+      </c>
+      <c r="AX330">
+        <v>4</v>
+      </c>
+      <c r="AY330">
+        <v>3</v>
+      </c>
+      <c r="AZ330">
+        <v>3</v>
+      </c>
+      <c r="BA330">
+        <v>3</v>
+      </c>
+      <c r="BB330">
+        <v>5</v>
+      </c>
+      <c r="BC330">
+        <v>4</v>
+      </c>
+      <c r="BD330">
+        <v>4</v>
+      </c>
+      <c r="BE330">
+        <v>4</v>
+      </c>
+      <c r="BF330">
+        <v>5</v>
+      </c>
+      <c r="BG330">
+        <v>5</v>
+      </c>
+      <c r="BH330">
+        <v>3</v>
+      </c>
+      <c r="BI330">
+        <v>3</v>
+      </c>
+      <c r="BJ330">
+        <v>4</v>
+      </c>
+      <c r="BK330">
+        <v>4</v>
+      </c>
+      <c r="BL330">
+        <v>4</v>
+      </c>
+      <c r="BM330">
+        <v>1</v>
+      </c>
+      <c r="BN330">
+        <v>1</v>
+      </c>
+      <c r="BO330">
+        <v>2</v>
+      </c>
+      <c r="BP330">
+        <v>2</v>
+      </c>
+      <c r="BQ330">
+        <v>1</v>
+      </c>
+      <c r="BR330">
+        <v>1</v>
+      </c>
+      <c r="BS330">
+        <v>1</v>
+      </c>
+      <c r="BT330">
+        <v>2</v>
+      </c>
+      <c r="BU330">
+        <v>1</v>
+      </c>
+      <c r="BV330">
+        <v>2</v>
+      </c>
+      <c r="BW330">
+        <v>1</v>
+      </c>
+      <c r="BX330">
+        <v>1</v>
+      </c>
+      <c r="BY330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:77" ht="12.75">
+      <c r="A331">
+        <v>331</v>
+      </c>
+      <c r="B331" t="s">
+        <v>980</v>
+      </c>
+      <c r="C331" t="s">
+        <v>864</v>
+      </c>
+      <c r="D331" t="s">
+        <v>79</v>
+      </c>
+      <c r="E331" t="s">
+        <v>80</v>
+      </c>
+      <c r="F331" t="s">
+        <v>981</v>
+      </c>
+      <c r="G331">
+        <v>176</v>
+      </c>
+      <c r="H331">
+        <v>2</v>
+      </c>
+      <c r="I331">
+        <v>19</v>
+      </c>
+      <c r="J331">
+        <v>5</v>
+      </c>
+      <c r="K331">
+        <v>4</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>5</v>
+      </c>
+      <c r="N331">
+        <v>4</v>
+      </c>
+      <c r="O331">
+        <v>4</v>
+      </c>
+      <c r="P331">
+        <v>1</v>
+      </c>
+      <c r="Q331">
+        <v>4</v>
+      </c>
+      <c r="R331">
+        <v>4</v>
+      </c>
+      <c r="S331">
+        <v>4</v>
+      </c>
+      <c r="T331">
+        <v>4</v>
+      </c>
+      <c r="U331">
+        <v>2</v>
+      </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
+      <c r="W331">
+        <v>3</v>
+      </c>
+      <c r="X331">
+        <v>2</v>
+      </c>
+      <c r="Y331">
+        <v>1</v>
+      </c>
+      <c r="Z331">
+        <v>1</v>
+      </c>
+      <c r="AA331">
+        <v>1</v>
+      </c>
+      <c r="AB331">
+        <v>4</v>
+      </c>
+      <c r="AC331">
+        <v>1</v>
+      </c>
+      <c r="AD331">
+        <v>2</v>
+      </c>
+      <c r="AE331">
+        <v>5</v>
+      </c>
+      <c r="AF331">
+        <v>5</v>
+      </c>
+      <c r="AG331">
+        <v>5</v>
+      </c>
+      <c r="AH331">
+        <v>5</v>
+      </c>
+      <c r="AI331">
+        <v>2</v>
+      </c>
+      <c r="AJ331">
+        <v>4</v>
+      </c>
+      <c r="AK331">
+        <v>5</v>
+      </c>
+      <c r="AL331">
+        <v>3</v>
+      </c>
+      <c r="AM331">
+        <v>2</v>
+      </c>
+      <c r="AN331">
+        <v>4</v>
+      </c>
+      <c r="AO331">
+        <v>2</v>
+      </c>
+      <c r="AP331">
+        <v>2</v>
+      </c>
+      <c r="AQ331">
+        <v>5</v>
+      </c>
+      <c r="AR331">
+        <v>5</v>
+      </c>
+      <c r="AS331">
+        <v>2</v>
+      </c>
+      <c r="AT331">
+        <v>4</v>
+      </c>
+      <c r="AU331">
+        <v>2</v>
+      </c>
+      <c r="AV331">
+        <v>4</v>
+      </c>
+      <c r="AW331">
+        <v>2</v>
+      </c>
+      <c r="AX331">
+        <v>4</v>
+      </c>
+      <c r="AY331">
+        <v>4</v>
+      </c>
+      <c r="AZ331">
+        <v>4</v>
+      </c>
+      <c r="BA331">
+        <v>4</v>
+      </c>
+      <c r="BB331">
+        <v>5</v>
+      </c>
+      <c r="BC331">
+        <v>5</v>
+      </c>
+      <c r="BD331">
+        <v>5</v>
+      </c>
+      <c r="BE331">
+        <v>2</v>
+      </c>
+      <c r="BF331">
+        <v>5</v>
+      </c>
+      <c r="BG331">
+        <v>4</v>
+      </c>
+      <c r="BH331">
+        <v>2</v>
+      </c>
+      <c r="BI331">
+        <v>5</v>
+      </c>
+      <c r="BJ331">
+        <v>2</v>
+      </c>
+      <c r="BK331">
+        <v>4</v>
+      </c>
+      <c r="BL331">
+        <v>4</v>
+      </c>
+      <c r="BM331">
+        <v>2</v>
+      </c>
+      <c r="BN331">
+        <v>1</v>
+      </c>
+      <c r="BO331">
+        <v>1</v>
+      </c>
+      <c r="BP331">
+        <v>1</v>
+      </c>
+      <c r="BQ331">
+        <v>1</v>
+      </c>
+      <c r="BR331">
+        <v>1</v>
+      </c>
+      <c r="BS331">
+        <v>1</v>
+      </c>
+      <c r="BT331">
+        <v>2</v>
+      </c>
+      <c r="BU331">
+        <v>1</v>
+      </c>
+      <c r="BV331">
+        <v>2</v>
+      </c>
+      <c r="BW331">
+        <v>2</v>
+      </c>
+      <c r="BX331">
+        <v>2</v>
+      </c>
+      <c r="BY331">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:77" ht="12.75">
+      <c r="A332">
+        <v>332</v>
+      </c>
+      <c r="B332" t="s">
+        <v>982</v>
+      </c>
+      <c r="C332" t="s">
+        <v>983</v>
+      </c>
+      <c r="D332" t="s">
+        <v>79</v>
+      </c>
+      <c r="E332" t="s">
+        <v>80</v>
+      </c>
+      <c r="F332" t="s">
+        <v>984</v>
+      </c>
+      <c r="G332">
+        <v>193</v>
+      </c>
+      <c r="H332">
+        <v>2</v>
+      </c>
+      <c r="I332">
+        <v>20</v>
+      </c>
+      <c r="J332">
+        <v>3</v>
+      </c>
+      <c r="K332">
+        <v>4</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332">
+        <v>4</v>
+      </c>
+      <c r="N332">
+        <v>4</v>
+      </c>
+      <c r="O332">
+        <v>4</v>
+      </c>
+      <c r="P332">
+        <v>2</v>
+      </c>
+      <c r="Q332">
+        <v>4</v>
+      </c>
+      <c r="R332">
+        <v>4</v>
+      </c>
+      <c r="S332">
+        <v>4</v>
+      </c>
+      <c r="T332">
+        <v>5</v>
+      </c>
+      <c r="U332">
+        <v>3</v>
+      </c>
+      <c r="V332">
+        <v>3</v>
+      </c>
+      <c r="W332">
+        <v>4</v>
+      </c>
+      <c r="X332">
+        <v>3</v>
+      </c>
+      <c r="Y332">
+        <v>3</v>
+      </c>
+      <c r="Z332">
+        <v>3</v>
+      </c>
+      <c r="AA332">
+        <v>3</v>
+      </c>
+      <c r="AB332">
+        <v>3</v>
+      </c>
+      <c r="AC332">
+        <v>1</v>
+      </c>
+      <c r="AD332">
+        <v>3</v>
+      </c>
+      <c r="AE332">
+        <v>4</v>
+      </c>
+      <c r="AF332">
+        <v>4</v>
+      </c>
+      <c r="AG332">
+        <v>5</v>
+      </c>
+      <c r="AH332">
+        <v>4</v>
+      </c>
+      <c r="AI332">
+        <v>3</v>
+      </c>
+      <c r="AJ332">
+        <v>4</v>
+      </c>
+      <c r="AK332">
+        <v>5</v>
+      </c>
+      <c r="AL332">
+        <v>4</v>
+      </c>
+      <c r="AM332">
+        <v>3</v>
+      </c>
+      <c r="AN332">
+        <v>2</v>
+      </c>
+      <c r="AO332">
+        <v>2</v>
+      </c>
+      <c r="AP332">
+        <v>2</v>
+      </c>
+      <c r="AQ332">
+        <v>4</v>
+      </c>
+      <c r="AR332">
+        <v>4</v>
+      </c>
+      <c r="AS332">
+        <v>3</v>
+      </c>
+      <c r="AT332">
+        <v>4</v>
+      </c>
+      <c r="AU332">
+        <v>4</v>
+      </c>
+      <c r="AV332">
+        <v>4</v>
+      </c>
+      <c r="AW332">
+        <v>5</v>
+      </c>
+      <c r="AX332">
+        <v>5</v>
+      </c>
+      <c r="AY332">
+        <v>4</v>
+      </c>
+      <c r="AZ332">
+        <v>5</v>
+      </c>
+      <c r="BA332">
+        <v>5</v>
+      </c>
+      <c r="BB332">
+        <v>5</v>
+      </c>
+      <c r="BC332">
+        <v>5</v>
+      </c>
+      <c r="BD332">
+        <v>5</v>
+      </c>
+      <c r="BE332">
+        <v>2</v>
+      </c>
+      <c r="BF332">
+        <v>5</v>
+      </c>
+      <c r="BG332">
+        <v>5</v>
+      </c>
+      <c r="BH332">
+        <v>2</v>
+      </c>
+      <c r="BI332">
+        <v>5</v>
+      </c>
+      <c r="BJ332">
+        <v>2</v>
+      </c>
+      <c r="BK332">
+        <v>4</v>
+      </c>
+      <c r="BL332">
+        <v>4</v>
+      </c>
+      <c r="BM332">
+        <v>1</v>
+      </c>
+      <c r="BN332">
+        <v>1</v>
+      </c>
+      <c r="BO332">
+        <v>2</v>
+      </c>
+      <c r="BP332">
+        <v>1</v>
+      </c>
+      <c r="BQ332">
+        <v>1</v>
+      </c>
+      <c r="BR332">
+        <v>2</v>
+      </c>
+      <c r="BS332">
+        <v>1</v>
+      </c>
+      <c r="BT332">
+        <v>2</v>
+      </c>
+      <c r="BU332">
+        <v>1</v>
+      </c>
+      <c r="BV332">
+        <v>2</v>
+      </c>
+      <c r="BW332">
+        <v>2</v>
+      </c>
+      <c r="BX332">
+        <v>2</v>
+      </c>
+      <c r="BY332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:77" ht="12.75">
+      <c r="A333">
+        <v>333</v>
+      </c>
+      <c r="B333" t="s">
+        <v>985</v>
+      </c>
+      <c r="C333" t="s">
+        <v>986</v>
+      </c>
+      <c r="D333" t="s">
+        <v>79</v>
+      </c>
+      <c r="E333" t="s">
+        <v>80</v>
+      </c>
+      <c r="F333" t="s">
+        <v>987</v>
+      </c>
+      <c r="G333">
+        <v>189</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>34</v>
+      </c>
+      <c r="J333">
+        <v>5</v>
+      </c>
+      <c r="K333">
+        <v>1</v>
+      </c>
+      <c r="L333">
+        <v>1</v>
+      </c>
+      <c r="M333">
+        <v>4</v>
+      </c>
+      <c r="N333">
+        <v>5</v>
+      </c>
+      <c r="O333">
+        <v>4</v>
+      </c>
+      <c r="P333">
+        <v>4</v>
+      </c>
+      <c r="Q333">
+        <v>4</v>
+      </c>
+      <c r="R333">
+        <v>4</v>
+      </c>
+      <c r="S333">
+        <v>3</v>
+      </c>
+      <c r="T333">
+        <v>4</v>
+      </c>
+      <c r="U333">
+        <v>3</v>
+      </c>
+      <c r="V333">
+        <v>4</v>
+      </c>
+      <c r="W333">
+        <v>3</v>
+      </c>
+      <c r="X333">
+        <v>4</v>
+      </c>
+      <c r="Y333">
+        <v>3</v>
+      </c>
+      <c r="Z333">
+        <v>4</v>
+      </c>
+      <c r="AA333">
+        <v>3</v>
+      </c>
+      <c r="AB333">
+        <v>4</v>
+      </c>
+      <c r="AC333">
+        <v>3</v>
+      </c>
+      <c r="AD333">
+        <v>4</v>
+      </c>
+      <c r="AE333">
+        <v>3</v>
+      </c>
+      <c r="AF333">
+        <v>4</v>
+      </c>
+      <c r="AG333">
+        <v>4</v>
+      </c>
+      <c r="AH333">
+        <v>2</v>
+      </c>
+      <c r="AI333">
+        <v>2</v>
+      </c>
+      <c r="AJ333">
+        <v>2</v>
+      </c>
+      <c r="AK333">
+        <v>4</v>
+      </c>
+      <c r="AL333">
+        <v>3</v>
+      </c>
+      <c r="AM333">
+        <v>2</v>
+      </c>
+      <c r="AN333">
+        <v>4</v>
+      </c>
+      <c r="AO333">
+        <v>3</v>
+      </c>
+      <c r="AP333">
+        <v>5</v>
+      </c>
+      <c r="AQ333">
+        <v>3</v>
+      </c>
+      <c r="AR333">
+        <v>5</v>
+      </c>
+      <c r="AS333">
+        <v>4</v>
+      </c>
+      <c r="AT333">
+        <v>4</v>
+      </c>
+      <c r="AU333">
+        <v>4</v>
+      </c>
+      <c r="AV333">
+        <v>4</v>
+      </c>
+      <c r="AW333">
+        <v>3</v>
+      </c>
+      <c r="AX333">
+        <v>4</v>
+      </c>
+      <c r="AY333">
+        <v>5</v>
+      </c>
+      <c r="AZ333">
+        <v>4</v>
+      </c>
+      <c r="BA333">
+        <v>4</v>
+      </c>
+      <c r="BB333">
+        <v>5</v>
+      </c>
+      <c r="BC333">
+        <v>4</v>
+      </c>
+      <c r="BD333">
+        <v>5</v>
+      </c>
+      <c r="BE333">
+        <v>4</v>
+      </c>
+      <c r="BF333">
+        <v>3</v>
+      </c>
+      <c r="BG333">
+        <v>3</v>
+      </c>
+      <c r="BH333">
+        <v>1</v>
+      </c>
+      <c r="BI333">
+        <v>4</v>
+      </c>
+      <c r="BJ333">
+        <v>4</v>
+      </c>
+      <c r="BK333">
+        <v>3</v>
+      </c>
+      <c r="BL333">
+        <v>4</v>
+      </c>
+      <c r="BM333">
+        <v>1</v>
+      </c>
+      <c r="BN333">
+        <v>2</v>
+      </c>
+      <c r="BO333">
+        <v>1</v>
+      </c>
+      <c r="BP333">
+        <v>2</v>
+      </c>
+      <c r="BQ333">
+        <v>2</v>
+      </c>
+      <c r="BR333">
+        <v>2</v>
+      </c>
+      <c r="BS333">
+        <v>1</v>
+      </c>
+      <c r="BT333">
+        <v>1</v>
+      </c>
+      <c r="BU333">
+        <v>1</v>
+      </c>
+      <c r="BV333">
+        <v>1</v>
+      </c>
+      <c r="BW333">
+        <v>1</v>
+      </c>
+      <c r="BX333">
+        <v>1</v>
+      </c>
+      <c r="BY333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:77" ht="12.75">
+      <c r="A334">
+        <v>334</v>
+      </c>
+      <c r="B334" t="s">
+        <v>988</v>
+      </c>
+      <c r="C334" t="s">
+        <v>989</v>
+      </c>
+      <c r="D334" t="s">
+        <v>79</v>
+      </c>
+      <c r="E334" t="s">
+        <v>80</v>
+      </c>
+      <c r="F334" t="s">
+        <v>990</v>
+      </c>
+      <c r="G334">
+        <v>174</v>
+      </c>
+      <c r="H334">
+        <v>2</v>
+      </c>
+      <c r="I334">
+        <v>20</v>
+      </c>
+      <c r="J334">
+        <v>5</v>
+      </c>
+      <c r="K334">
+        <v>10</v>
+      </c>
+      <c r="L334">
+        <v>1</v>
+      </c>
+      <c r="M334">
+        <v>3</v>
+      </c>
+      <c r="N334">
+        <v>3</v>
+      </c>
+      <c r="O334">
+        <v>5</v>
+      </c>
+      <c r="P334">
+        <v>2</v>
+      </c>
+      <c r="Q334">
+        <v>5</v>
+      </c>
+      <c r="R334">
+        <v>5</v>
+      </c>
+      <c r="S334">
+        <v>5</v>
+      </c>
+      <c r="T334">
+        <v>5</v>
+      </c>
+      <c r="U334">
+        <v>1</v>
+      </c>
+      <c r="V334">
+        <v>2</v>
+      </c>
+      <c r="W334">
+        <v>3</v>
+      </c>
+      <c r="X334">
+        <v>1</v>
+      </c>
+      <c r="Y334">
+        <v>1</v>
+      </c>
+      <c r="Z334">
+        <v>1</v>
+      </c>
+      <c r="AA334">
+        <v>1</v>
+      </c>
+      <c r="AB334">
+        <v>4</v>
+      </c>
+      <c r="AC334">
+        <v>1</v>
+      </c>
+      <c r="AD334">
+        <v>4</v>
+      </c>
+      <c r="AE334">
+        <v>5</v>
+      </c>
+      <c r="AF334">
+        <v>5</v>
+      </c>
+      <c r="AG334">
+        <v>4</v>
+      </c>
+      <c r="AH334">
+        <v>4</v>
+      </c>
+      <c r="AI334">
+        <v>2</v>
+      </c>
+      <c r="AJ334">
+        <v>5</v>
+      </c>
+      <c r="AK334">
+        <v>4</v>
+      </c>
+      <c r="AL334">
+        <v>4</v>
+      </c>
+      <c r="AM334">
+        <v>4</v>
+      </c>
+      <c r="AN334">
+        <v>1</v>
+      </c>
+      <c r="AO334">
+        <v>1</v>
+      </c>
+      <c r="AP334">
+        <v>1</v>
+      </c>
+      <c r="AQ334">
+        <v>5</v>
+      </c>
+      <c r="AR334">
+        <v>5</v>
+      </c>
+      <c r="AS334">
+        <v>5</v>
+      </c>
+      <c r="AT334">
+        <v>4</v>
+      </c>
+      <c r="AU334">
+        <v>3</v>
+      </c>
+      <c r="AV334">
+        <v>4</v>
+      </c>
+      <c r="AW334">
+        <v>3</v>
+      </c>
+      <c r="AX334">
+        <v>2</v>
+      </c>
+      <c r="AY334">
+        <v>5</v>
+      </c>
+      <c r="AZ334">
+        <v>4</v>
+      </c>
+      <c r="BA334">
+        <v>3</v>
+      </c>
+      <c r="BB334">
+        <v>5</v>
+      </c>
+      <c r="BC334">
+        <v>5</v>
+      </c>
+      <c r="BD334">
+        <v>4</v>
+      </c>
+      <c r="BE334">
+        <v>1</v>
+      </c>
+      <c r="BF334">
+        <v>5</v>
+      </c>
+      <c r="BG334">
+        <v>4</v>
+      </c>
+      <c r="BH334">
+        <v>1</v>
+      </c>
+      <c r="BI334">
+        <v>4</v>
+      </c>
+      <c r="BJ334">
+        <v>3</v>
+      </c>
+      <c r="BK334">
+        <v>4</v>
+      </c>
+      <c r="BL334">
+        <v>3</v>
+      </c>
+      <c r="BM334">
+        <v>1</v>
+      </c>
+      <c r="BN334">
+        <v>1</v>
+      </c>
+      <c r="BO334">
+        <v>1</v>
+      </c>
+      <c r="BP334">
+        <v>2</v>
+      </c>
+      <c r="BQ334">
+        <v>1</v>
+      </c>
+      <c r="BR334">
+        <v>1</v>
+      </c>
+      <c r="BS334">
+        <v>1</v>
+      </c>
+      <c r="BT334">
+        <v>2</v>
+      </c>
+      <c r="BU334">
+        <v>1</v>
+      </c>
+      <c r="BV334">
+        <v>1</v>
+      </c>
+      <c r="BW334">
+        <v>2</v>
+      </c>
+      <c r="BX334">
+        <v>2</v>
+      </c>
+      <c r="BY334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:77" ht="12.75">
+      <c r="A335">
+        <v>335</v>
+      </c>
+      <c r="B335" t="s">
+        <v>991</v>
+      </c>
+      <c r="C335" t="s">
+        <v>992</v>
+      </c>
+      <c r="D335" t="s">
+        <v>79</v>
+      </c>
+      <c r="E335" t="s">
+        <v>80</v>
+      </c>
+      <c r="F335" t="s">
+        <v>993</v>
+      </c>
+      <c r="G335">
+        <v>163</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>56</v>
+      </c>
+      <c r="J335">
+        <v>3</v>
+      </c>
+      <c r="K335">
+        <v>14</v>
+      </c>
+      <c r="L335">
+        <v>1</v>
+      </c>
+      <c r="M335">
+        <v>3</v>
+      </c>
+      <c r="N335">
+        <v>3</v>
+      </c>
+      <c r="O335">
+        <v>4</v>
+      </c>
+      <c r="P335">
+        <v>3</v>
+      </c>
+      <c r="Q335">
+        <v>4</v>
+      </c>
+      <c r="R335">
+        <v>3</v>
+      </c>
+      <c r="S335">
+        <v>3</v>
+      </c>
+      <c r="T335">
+        <v>3</v>
+      </c>
+      <c r="U335">
+        <v>4</v>
+      </c>
+      <c r="V335">
+        <v>3</v>
+      </c>
+      <c r="W335">
+        <v>2</v>
+      </c>
+      <c r="X335">
+        <v>1</v>
+      </c>
+      <c r="Y335">
+        <v>1</v>
+      </c>
+      <c r="Z335">
+        <v>1</v>
+      </c>
+      <c r="AA335">
+        <v>3</v>
+      </c>
+      <c r="AB335">
+        <v>4</v>
+      </c>
+      <c r="AC335">
+        <v>1</v>
+      </c>
+      <c r="AD335">
+        <v>2</v>
+      </c>
+      <c r="AE335">
+        <v>4</v>
+      </c>
+      <c r="AF335">
+        <v>4</v>
+      </c>
+      <c r="AG335">
+        <v>4</v>
+      </c>
+      <c r="AH335">
+        <v>4</v>
+      </c>
+      <c r="AI335">
+        <v>3</v>
+      </c>
+      <c r="AJ335">
+        <v>4</v>
+      </c>
+      <c r="AK335">
+        <v>4</v>
+      </c>
+      <c r="AL335">
+        <v>2</v>
+      </c>
+      <c r="AM335">
+        <v>2</v>
+      </c>
+      <c r="AN335">
+        <v>2</v>
+      </c>
+      <c r="AO335">
+        <v>2</v>
+      </c>
+      <c r="AP335">
+        <v>2</v>
+      </c>
+      <c r="AQ335">
+        <v>4</v>
+      </c>
+      <c r="AR335">
+        <v>4</v>
+      </c>
+      <c r="AS335">
+        <v>2</v>
+      </c>
+      <c r="AT335">
+        <v>4</v>
+      </c>
+      <c r="AU335">
+        <v>3</v>
+      </c>
+      <c r="AV335">
+        <v>4</v>
+      </c>
+      <c r="AW335">
+        <v>4</v>
+      </c>
+      <c r="AX335">
+        <v>4</v>
+      </c>
+      <c r="AY335">
+        <v>4</v>
+      </c>
+      <c r="AZ335">
+        <v>4</v>
+      </c>
+      <c r="BA335">
+        <v>4</v>
+      </c>
+      <c r="BB335">
+        <v>5</v>
+      </c>
+      <c r="BC335">
+        <v>4</v>
+      </c>
+      <c r="BD335">
+        <v>4</v>
+      </c>
+      <c r="BE335">
+        <v>2</v>
+      </c>
+      <c r="BF335">
+        <v>4</v>
+      </c>
+      <c r="BG335">
+        <v>3</v>
+      </c>
+      <c r="BH335">
+        <v>2</v>
+      </c>
+      <c r="BI335">
+        <v>4</v>
+      </c>
+      <c r="BJ335">
+        <v>2</v>
+      </c>
+      <c r="BK335">
+        <v>4</v>
+      </c>
+      <c r="BL335">
+        <v>3</v>
+      </c>
+      <c r="BM335">
+        <v>1</v>
+      </c>
+      <c r="BN335">
+        <v>1</v>
+      </c>
+      <c r="BO335">
+        <v>1</v>
+      </c>
+      <c r="BP335">
+        <v>1</v>
+      </c>
+      <c r="BQ335">
+        <v>1</v>
+      </c>
+      <c r="BR335">
+        <v>2</v>
+      </c>
+      <c r="BS335">
+        <v>1</v>
+      </c>
+      <c r="BT335">
+        <v>2</v>
+      </c>
+      <c r="BU335">
+        <v>1</v>
+      </c>
+      <c r="BV335">
+        <v>1</v>
+      </c>
+      <c r="BW335">
+        <v>2</v>
+      </c>
+      <c r="BX335">
+        <v>2</v>
+      </c>
+      <c r="BY335">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="K1:K326" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>